--- a/PPTSFramework/TestProjects/PPTS.Security.Test/Contents/系统权限汇总-mini.xlsx
+++ b/PPTSFramework/TestProjects/PPTS.Security.Test/Contents/系统权限汇总-mini.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenz\OneDrive\项目\学大教育\设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AK47-2016\PPTSFramework\TestProjects\PPTS.Security.Test\Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
   <si>
     <t>权限点/数据权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>Y-建档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,12 +363,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>74540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1068457</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
@@ -1834,86 +1830,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L208"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="14" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="K1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1923,29 +1917,28 @@
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1955,29 +1948,28 @@
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1987,29 +1979,28 @@
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2019,31 +2010,30 @@
       <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2053,31 +2043,30 @@
       <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2087,29 +2076,28 @@
       <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2119,29 +2107,28 @@
       <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2151,29 +2138,28 @@
       <c r="I9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2183,29 +2169,28 @@
       <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2215,31 +2200,30 @@
       <c r="I11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2249,29 +2233,28 @@
       <c r="I12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2281,29 +2264,28 @@
       <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2313,29 +2295,28 @@
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2345,11 +2326,8 @@
       <c r="I15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
